--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,7 +46,10 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
   </si>
   <si>
     <t>however</t>
@@ -61,22 +64,22 @@
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>missing</t>
   </si>
   <si>
     <t>guess</t>
@@ -88,25 +91,25 @@
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
@@ -115,12 +118,6 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -133,58 +130,64 @@
     <t>size</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
+    <t>2</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>box</t>
+    <t>expected</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>little</t>
@@ -193,12 +196,12 @@
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -217,24 +223,24 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -247,10 +253,10 @@
     <t>fun</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -611,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4">
-        <v>0.7692307692307693</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5">
         <v>0.8148148148148148</v>
       </c>
-      <c r="C5">
+      <c r="L5">
         <v>22</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5">
-        <v>0.6989247311827957</v>
-      </c>
-      <c r="L5">
-        <v>65</v>
-      </c>
-      <c r="M5">
-        <v>65</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7605633802816901</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>0.59375</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7204301075268817</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8">
-        <v>0.3631147540983606</v>
+        <v>0.484375</v>
       </c>
       <c r="L8">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>777</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7184466019417476</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C9">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9">
-        <v>0.3478260869565217</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10">
-        <v>0.3199426111908178</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L10">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="M10">
-        <v>223</v>
+        <v>463</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>474</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>0.2883817427385892</v>
+        <v>0.3242467718794835</v>
       </c>
       <c r="L11">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="M11">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>343</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>0.2333333333333333</v>
+        <v>0.2904564315352697</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>92</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>0.2232415902140673</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5966386554621849</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14">
-        <v>0.2228915662650602</v>
+        <v>0.225</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,37 +1286,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5476190476190477</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>23</v>
       </c>
-      <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>19</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15">
-        <v>0.1481481481481481</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5370370370370371</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,31 +1354,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16">
-        <v>0.1169354838709677</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>219</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5370370370370371</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,31 +1404,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1026</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5246376811594203</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18">
-        <v>0.06128133704735376</v>
+        <v>0.1130587204206836</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>337</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5111111111111111</v>
+        <v>0.5101449275362319</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,31 +1504,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19">
-        <v>0.04805194805194805</v>
+        <v>0.05191434133679429</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1466</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4631578947368421</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,7 +1554,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>0.02949061662198391</v>
+      </c>
+      <c r="L20">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>28</v>
+      </c>
+      <c r="N20">
+        <v>0.79</v>
+      </c>
+      <c r="O20">
+        <v>0.21</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1556,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4488188976377953</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1574,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1612,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4166666666666667</v>
+        <v>0.453125</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1608,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4126984126984127</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1626,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1634,25 +1664,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4096385542168675</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>34</v>
-      </c>
-      <c r="D24">
-        <v>34</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1660,13 +1690,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3934426229508197</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1678,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1686,13 +1716,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3515625</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1704,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1712,13 +1742,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3514851485148515</v>
+        <v>0.3984375</v>
       </c>
       <c r="C27">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1730,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1738,13 +1768,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3483146067415731</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1756,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1764,13 +1794,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.34375</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1782,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1790,13 +1820,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3364928909952606</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1808,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1816,13 +1846,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2991452991452991</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1834,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1842,13 +1872,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2857142857142857</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1860,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1868,13 +1898,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2422680412371134</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1886,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1894,13 +1924,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2101449275362319</v>
+        <v>0.2183544303797468</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1912,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1920,25 +1950,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1961367013372957</v>
+        <v>0.2106824925816024</v>
       </c>
       <c r="C35">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D35">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1946,13 +1976,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1942857142857143</v>
+        <v>0.1949152542372881</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1964,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>141</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1972,13 +2002,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1928571428571429</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1990,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1998,13 +2028,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.19</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2016,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2024,13 +2054,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1847133757961783</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2042,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2050,13 +2080,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1835443037974684</v>
+        <v>0.185</v>
       </c>
       <c r="C40">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2068,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>258</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2102,13 +2132,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1651982378854626</v>
+        <v>0.1784140969162996</v>
       </c>
       <c r="C42">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2120,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2128,25 +2158,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1556195965417868</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>293</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2154,25 +2184,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1542056074766355</v>
+        <v>0.1354466858789625</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>181</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2180,25 +2210,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1420765027322404</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>157</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2206,13 +2236,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1310861423220974</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C46">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2224,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>232</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2232,25 +2262,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1209677419354839</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2258,13 +2288,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1151832460732984</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2284,13 +2314,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1123287671232877</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2302,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2310,25 +2340,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09570957095709572</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C50">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>548</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2336,25 +2366,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.07605633802816901</v>
+        <v>0.08072487644151564</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>328</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2362,25 +2392,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.07366071428571429</v>
+        <v>0.0694006309148265</v>
       </c>
       <c r="C52">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>415</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2388,25 +2418,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.06542056074766354</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.8200000000000001</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2414,25 +2444,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.04587155963302753</v>
+        <v>0.06526806526806526</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>624</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2440,25 +2470,51 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.04166666666666666</v>
+        <v>0.03929024081115336</v>
       </c>
       <c r="C55">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>759</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.03384615384615385</v>
+      </c>
+      <c r="C56">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>0.19</v>
+      </c>
+      <c r="F56">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
